--- a/高中签到表五中班.xlsx
+++ b/高中签到表五中班.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="42">
   <si>
     <t>下午</t>
   </si>
@@ -178,15 +178,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>物理/英语</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>数学/物理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>英语</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -292,9 +284,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -303,6 +292,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -601,8 +593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -616,18 +608,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.75">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1"/>
@@ -652,14 +644,14 @@
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="8" t="s">
+      <c r="D3" s="6"/>
+      <c r="E3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="7"/>
+      <c r="F3" s="6"/>
       <c r="G3" s="4" t="s">
         <v>2</v>
       </c>
@@ -722,7 +714,7 @@
         <v>10</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -834,7 +826,7 @@
         <v>17</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -898,7 +890,7 @@
         <v>21</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -946,7 +938,7 @@
         <v>24</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
@@ -962,7 +954,7 @@
         <v>25</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
@@ -978,7 +970,7 @@
         <v>26</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
@@ -994,7 +986,7 @@
         <v>27</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
@@ -1109,13 +1101,13 @@
         <v>40</v>
       </c>
       <c r="C31" s="4"/>
-      <c r="D31" s="5"/>
+      <c r="D31" s="8"/>
       <c r="E31" s="4"/>
-      <c r="F31" s="5"/>
+      <c r="F31" s="8"/>
       <c r="G31" s="4"/>
-      <c r="H31" s="5"/>
+      <c r="H31" s="8"/>
       <c r="I31" s="4"/>
-      <c r="J31" s="5"/>
+      <c r="J31" s="8"/>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
@@ -1125,13 +1117,13 @@
         <v>38</v>
       </c>
       <c r="C32" s="4"/>
-      <c r="D32" s="5"/>
+      <c r="D32" s="8"/>
       <c r="E32" s="4"/>
-      <c r="F32" s="5"/>
+      <c r="F32" s="8"/>
       <c r="G32" s="4"/>
-      <c r="H32" s="5"/>
+      <c r="H32" s="8"/>
       <c r="I32" s="4"/>
-      <c r="J32" s="5"/>
+      <c r="J32" s="8"/>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
@@ -1141,13 +1133,13 @@
         <v>40</v>
       </c>
       <c r="C33" s="4"/>
-      <c r="D33" s="5"/>
+      <c r="D33" s="8"/>
       <c r="E33" s="4"/>
-      <c r="F33" s="5"/>
+      <c r="F33" s="8"/>
       <c r="G33" s="4"/>
-      <c r="H33" s="5"/>
+      <c r="H33" s="8"/>
       <c r="I33" s="4"/>
-      <c r="J33" s="5"/>
+      <c r="J33" s="8"/>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
@@ -1157,69 +1149,68 @@
         <v>40</v>
       </c>
       <c r="C34" s="4"/>
-      <c r="D34" s="5"/>
+      <c r="D34" s="8"/>
       <c r="E34" s="4"/>
-      <c r="F34" s="5"/>
+      <c r="F34" s="8"/>
       <c r="G34" s="4"/>
-      <c r="H34" s="5"/>
+      <c r="H34" s="8"/>
       <c r="I34" s="4"/>
-      <c r="J34" s="5"/>
+      <c r="J34" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="131">
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
     <mergeCell ref="G20:H20"/>
     <mergeCell ref="G21:H21"/>
     <mergeCell ref="G22:H22"/>
@@ -1244,60 +1235,61 @@
     <mergeCell ref="G15:H15"/>
     <mergeCell ref="G16:H16"/>
     <mergeCell ref="I16:J16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
     <mergeCell ref="I10:J10"/>
     <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/高中签到表五中班.xlsx
+++ b/高中签到表五中班.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="47">
   <si>
     <t>下午</t>
   </si>
@@ -50,6 +50,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>牟月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>张泓翔</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -94,6 +98,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>李相明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>殷春艳</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -134,14 +142,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>罗池锐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王淇贤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>谭爽</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -166,19 +166,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>孙露</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欧晓将</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王威</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理/数学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>数学</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>物理/数学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>物理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>物理/英语</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>数学/物理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英语</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -186,7 +206,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -229,6 +249,14 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -238,7 +266,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -261,6 +289,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -270,19 +324,22 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -293,8 +350,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -591,10 +654,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J34"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19:F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -608,22 +671,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.75">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
       <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
@@ -638,20 +701,20 @@
       <c r="J2" s="4"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="7" t="s">
+      <c r="D3" s="7"/>
+      <c r="E3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="6"/>
+      <c r="F3" s="7"/>
       <c r="G3" s="4" t="s">
         <v>2</v>
       </c>
@@ -662,11 +725,11 @@
       <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>39</v>
+      <c r="B4" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -678,11 +741,11 @@
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>39</v>
+      <c r="B5" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -694,11 +757,11 @@
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>40</v>
+      <c r="B6" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -710,11 +773,11 @@
       <c r="J6" s="4"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>40</v>
+      <c r="B7" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -726,11 +789,11 @@
       <c r="J7" s="4"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>40</v>
+      <c r="B8" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -742,11 +805,11 @@
       <c r="J8" s="4"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>38</v>
+      <c r="B9" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -758,11 +821,11 @@
       <c r="J9" s="4"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>40</v>
+      <c r="B10" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -774,11 +837,11 @@
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>38</v>
+      <c r="B11" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -790,11 +853,11 @@
       <c r="J11" s="4"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>38</v>
+      <c r="B12" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -806,11 +869,11 @@
       <c r="J12" s="4"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>38</v>
+      <c r="B13" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -822,11 +885,11 @@
       <c r="J13" s="4"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>41</v>
+      <c r="B14" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -838,11 +901,11 @@
       <c r="J14" s="4"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>38</v>
+      <c r="B15" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -854,11 +917,11 @@
       <c r="J15" s="4"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>38</v>
+      <c r="B16" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -870,11 +933,11 @@
       <c r="J16" s="4"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>38</v>
+      <c r="B17" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
@@ -886,11 +949,11 @@
       <c r="J17" s="4"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>38</v>
+      <c r="B18" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -902,11 +965,11 @@
       <c r="J18" s="4"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>38</v>
+      <c r="B19" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -918,11 +981,11 @@
       <c r="J19" s="4"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>40</v>
+      <c r="B20" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -934,11 +997,11 @@
       <c r="J20" s="4"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>41</v>
+      <c r="B21" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
@@ -950,11 +1013,11 @@
       <c r="J21" s="4"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>41</v>
+      <c r="B22" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
@@ -966,11 +1029,11 @@
       <c r="J22" s="4"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>41</v>
+      <c r="B23" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
@@ -982,11 +1045,11 @@
       <c r="J23" s="4"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>41</v>
+      <c r="B24" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
@@ -998,11 +1061,11 @@
       <c r="J24" s="4"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>38</v>
+      <c r="B25" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
@@ -1014,11 +1077,11 @@
       <c r="J25" s="4"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>38</v>
+      <c r="B26" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
@@ -1030,11 +1093,11 @@
       <c r="J26" s="4"/>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>40</v>
+      <c r="B27" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
@@ -1046,11 +1109,11 @@
       <c r="J27" s="4"/>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>40</v>
+      <c r="B28" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
@@ -1062,11 +1125,11 @@
       <c r="J28" s="4"/>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>40</v>
+      <c r="B29" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
@@ -1078,11 +1141,11 @@
       <c r="J29" s="4"/>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>38</v>
+      <c r="B30" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
@@ -1094,100 +1157,190 @@
       <c r="J30" s="4"/>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" s="4"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="5"/>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" s="4"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="5"/>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" s="4"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="5"/>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" s="4"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="5"/>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35" s="10"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="11"/>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C36" s="10"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="11"/>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C31" s="4"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="8"/>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="A32" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C32" s="4"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="8"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C33" s="4"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="8"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C34" s="4"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="8"/>
+      <c r="B37" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C37" s="10"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="131">
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="I12:J12"/>
+  <mergeCells count="143">
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="I9:J9"/>
@@ -1212,84 +1365,54 @@
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="G30:H30"/>
     <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="I12:J12"/>
     <mergeCell ref="G21:H21"/>
     <mergeCell ref="G22:H22"/>
     <mergeCell ref="G23:H23"/>
     <mergeCell ref="G24:H24"/>
     <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I13:J13"/>
     <mergeCell ref="I14:J14"/>
     <mergeCell ref="I15:J15"/>
-    <mergeCell ref="G5:H5"/>
     <mergeCell ref="G14:H14"/>
     <mergeCell ref="G15:H15"/>
     <mergeCell ref="G16:H16"/>
     <mergeCell ref="I16:J16"/>
     <mergeCell ref="G17:H17"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
     <mergeCell ref="E14:F14"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="C21:D21"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
     <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/高中签到表五中班.xlsx
+++ b/高中签到表五中班.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="46">
   <si>
     <t>下午</t>
   </si>
@@ -47,10 +47,6 @@
   </si>
   <si>
     <t>李隆鑫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>牟月</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -335,11 +331,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -350,14 +352,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -654,10 +650,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J37"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19:F19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -671,34 +667,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.75">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4" t="s">
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
@@ -707,54 +703,54 @@
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="8" t="s">
+      <c r="D3" s="9"/>
+      <c r="E3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="4" t="s">
+      <c r="F3" s="9"/>
+      <c r="G3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4" t="s">
+      <c r="H3" s="7"/>
+      <c r="I3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="4"/>
+      <c r="J3" s="7"/>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
+        <v>40</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
+        <v>40</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="3" t="s">
@@ -763,14 +759,14 @@
       <c r="B6" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="3" t="s">
@@ -779,46 +775,46 @@
       <c r="B7" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
+        <v>42</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
+        <v>41</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="3" t="s">
@@ -827,174 +823,174 @@
       <c r="B10" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
+        <v>41</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
+        <v>41</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
+        <v>41</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
+        <v>44</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
+        <v>41</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
+        <v>41</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
+        <v>41</v>
+      </c>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
+        <v>41</v>
+      </c>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
+        <v>45</v>
+      </c>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
+        <v>41</v>
+      </c>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="3" t="s">
@@ -1003,110 +999,110 @@
       <c r="B21" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
+        <v>44</v>
+      </c>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
+        <v>44</v>
+      </c>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
+        <v>44</v>
+      </c>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
+        <v>44</v>
+      </c>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
+        <v>41</v>
+      </c>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
+        <v>41</v>
+      </c>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="3" t="s">
@@ -1115,30 +1111,30 @@
       <c r="B28" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
+        <v>41</v>
+      </c>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="3" t="s">
@@ -1147,30 +1143,30 @@
       <c r="B30" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="11"/>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C31" s="4"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="5"/>
+        <v>41</v>
+      </c>
+      <c r="C31" s="7"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="11"/>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="3" t="s">
@@ -1179,143 +1175,164 @@
       <c r="B32" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C32" s="4"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="5"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="11"/>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C33" s="4"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="5"/>
+        <v>42</v>
+      </c>
+      <c r="C33" s="7"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="11"/>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C34" s="4"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="5"/>
+        <v>42</v>
+      </c>
+      <c r="C34" s="5"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="6"/>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="9" t="s">
+      <c r="A35" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C35" s="10"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="11"/>
+        <v>42</v>
+      </c>
+      <c r="C35" s="5"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="6"/>
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C36" s="10"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="10"/>
-      <c r="J36" s="11"/>
-    </row>
-    <row r="37" spans="1:10">
-      <c r="A37" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C37" s="10"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="11"/>
-      <c r="I37" s="10"/>
-      <c r="J37" s="11"/>
+        <v>42</v>
+      </c>
+      <c r="C36" s="5"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="143">
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
+  <mergeCells count="139">
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="E13:F13"/>
     <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I8:J8"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="G2:J2"/>
@@ -1327,92 +1344,51 @@
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="E4:F4"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="C21:D21"/>
     <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
     <mergeCell ref="E34:F34"/>
-    <mergeCell ref="G33:H33"/>
     <mergeCell ref="G34:H34"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="I33:J33"/>
     <mergeCell ref="I34:J34"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/高中签到表五中班.xlsx
+++ b/高中签到表五中班.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="48">
   <si>
     <t>下午</t>
   </si>
@@ -195,6 +195,14 @@
   </si>
   <si>
     <t>英语</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向娇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石晓凤</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -320,7 +328,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -334,14 +342,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -352,8 +360,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -650,10 +661,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -683,18 +694,18 @@
     <row r="2" spans="1:10">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7" t="s">
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
@@ -711,14 +722,14 @@
         <v>3</v>
       </c>
       <c r="F3" s="9"/>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7" t="s">
+      <c r="H3" s="6"/>
+      <c r="I3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="7"/>
+      <c r="J3" s="6"/>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="3" t="s">
@@ -727,14 +738,14 @@
       <c r="B4" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="3" t="s">
@@ -743,14 +754,14 @@
       <c r="B5" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="3" t="s">
@@ -759,14 +770,14 @@
       <c r="B6" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="3" t="s">
@@ -775,14 +786,14 @@
       <c r="B7" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="3" t="s">
@@ -791,14 +802,14 @@
       <c r="B8" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="3" t="s">
@@ -807,14 +818,14 @@
       <c r="B9" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="3" t="s">
@@ -823,14 +834,14 @@
       <c r="B10" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="3" t="s">
@@ -839,14 +850,14 @@
       <c r="B11" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="3" t="s">
@@ -855,14 +866,14 @@
       <c r="B12" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="3" t="s">
@@ -871,14 +882,14 @@
       <c r="B13" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="3" t="s">
@@ -887,14 +898,14 @@
       <c r="B14" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="3" t="s">
@@ -903,14 +914,14 @@
       <c r="B15" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="3" t="s">
@@ -919,14 +930,14 @@
       <c r="B16" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="3" t="s">
@@ -935,14 +946,14 @@
       <c r="B17" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="3" t="s">
@@ -951,14 +962,14 @@
       <c r="B18" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="3" t="s">
@@ -967,14 +978,14 @@
       <c r="B19" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="3" t="s">
@@ -983,14 +994,14 @@
       <c r="B20" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="3" t="s">
@@ -999,14 +1010,14 @@
       <c r="B21" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="3" t="s">
@@ -1015,14 +1026,14 @@
       <c r="B22" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="3" t="s">
@@ -1031,14 +1042,14 @@
       <c r="B23" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="3" t="s">
@@ -1047,14 +1058,14 @@
       <c r="B24" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="3" t="s">
@@ -1063,14 +1074,14 @@
       <c r="B25" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="4" t="s">
@@ -1079,14 +1090,14 @@
       <c r="B26" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="3" t="s">
@@ -1095,14 +1106,14 @@
       <c r="B27" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="3" t="s">
@@ -1111,14 +1122,14 @@
       <c r="B28" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="3" t="s">
@@ -1127,14 +1138,14 @@
       <c r="B29" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="3" t="s">
@@ -1143,14 +1154,14 @@
       <c r="B30" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C30" s="7"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="11"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="7"/>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="3" t="s">
@@ -1159,14 +1170,14 @@
       <c r="B31" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C31" s="7"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="11"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="7"/>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="3" t="s">
@@ -1175,14 +1186,14 @@
       <c r="B32" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C32" s="7"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="11"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="7"/>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="3" t="s">
@@ -1191,14 +1202,14 @@
       <c r="B33" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C33" s="7"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="11"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="7"/>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="4" t="s">
@@ -1207,14 +1218,14 @@
       <c r="B34" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C34" s="5"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="6"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="12"/>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="3" t="s">
@@ -1223,14 +1234,14 @@
       <c r="B35" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C35" s="5"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="6"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="12"/>
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="3" t="s">
@@ -1239,37 +1250,150 @@
       <c r="B36" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C36" s="5"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="6"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="12"/>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37" s="11"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="12"/>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38" s="11"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="139">
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E24:F24"/>
+  <mergeCells count="147">
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I21:J21"/>
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="E32:F32"/>
@@ -1294,101 +1418,28 @@
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="I32:J32"/>
     <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E24:F24"/>
     <mergeCell ref="E22:F22"/>
     <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/高中签到表五中班.xlsx
+++ b/高中签到表五中班.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="47">
   <si>
     <t>下午</t>
   </si>
@@ -42,167 +42,163 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>李隆鑫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张泓翔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谭诗广</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄诚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘朗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴翔宇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张永</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵玲钰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>殷春艳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>彭丽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡艳林</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谭爽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈少波</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申安福</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄白雪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李林欣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欧晓将</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王威</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理/数学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数学/物理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向娇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石晓凤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李相明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张达</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邹涛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>许文志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李晓妮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郎霜婷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牟森</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈恳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谭玉清</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈垚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒋鑫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>付慧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙露</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>胡成果</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>李隆鑫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张泓翔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>谭诗广</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄诚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>牟森</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘朗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李晓妮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吴翔宇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>郎霜婷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张永</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蒋鑫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>赵玲钰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李相明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>殷春艳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张达</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>付慧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>彭丽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>张王秋</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>陈垚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>谭玉清</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>许文志</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陈恳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>胡艳林</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>谭爽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陈少波</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>申安福</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邹涛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄白雪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李林欣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>孙露</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>欧晓将</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王威</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物理/数学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>物理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物理/英语</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数学/物理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>英语</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>向娇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>石晓凤</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -328,7 +324,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -340,6 +336,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -663,8 +662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -678,34 +677,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.75">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6" t="s">
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
@@ -714,582 +713,582 @@
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="10" t="s">
+      <c r="D3" s="10"/>
+      <c r="E3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="9"/>
-      <c r="G3" s="6" t="s">
+      <c r="F3" s="10"/>
+      <c r="G3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6" t="s">
+      <c r="H3" s="7"/>
+      <c r="I3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="6"/>
+      <c r="J3" s="7"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="B5" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
+        <v>25</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
+        <v>27</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
+        <v>46</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
+        <v>27</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="3" t="s">
-        <v>12</v>
+      <c r="A9" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
+        <v>26</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
+        <v>27</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="3" t="s">
-        <v>14</v>
+      <c r="A11" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
+        <v>26</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
+        <v>26</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="3" t="s">
-        <v>16</v>
+      <c r="A13" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
+        <v>26</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
+        <v>28</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="3" t="s">
-        <v>18</v>
+      <c r="A15" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
+        <v>26</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
+        <v>26</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="3" t="s">
-        <v>20</v>
+      <c r="A17" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
+        <v>26</v>
+      </c>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
+        <v>26</v>
+      </c>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="3" t="s">
-        <v>22</v>
+      <c r="A19" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
+        <v>26</v>
+      </c>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="3" t="s">
-        <v>23</v>
+      <c r="A20" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
+        <v>26</v>
+      </c>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="3" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
+        <v>27</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="3" t="s">
-        <v>25</v>
+      <c r="A22" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
+        <v>28</v>
+      </c>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="3" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
+        <v>26</v>
+      </c>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="3" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
+        <v>27</v>
+      </c>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="3" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
+        <v>26</v>
+      </c>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" s="7"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="8"/>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C30" s="6"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="7"/>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="3" t="s">
-        <v>34</v>
-      </c>
       <c r="B31" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C31" s="6"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="7"/>
+        <v>26</v>
+      </c>
+      <c r="C31" s="7"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="8"/>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="3" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C32" s="6"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="7"/>
+        <v>27</v>
+      </c>
+      <c r="C32" s="7"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="8"/>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="3" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C33" s="6"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="7"/>
+        <v>27</v>
+      </c>
+      <c r="C33" s="7"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="8"/>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="4" t="s">
-        <v>37</v>
+      <c r="A34" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C34" s="11"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="12"/>
+        <v>27</v>
+      </c>
+      <c r="C34" s="12"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="13"/>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="3" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C35" s="11"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="12"/>
-      <c r="I35" s="11"/>
-      <c r="J35" s="12"/>
+        <v>27</v>
+      </c>
+      <c r="C35" s="12"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="13"/>
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="3" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C36" s="11"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="12"/>
-      <c r="I36" s="11"/>
-      <c r="J36" s="12"/>
+        <v>27</v>
+      </c>
+      <c r="C36" s="12"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="13"/>
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="5" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C37" s="11"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="11"/>
-      <c r="J37" s="12"/>
+        <v>27</v>
+      </c>
+      <c r="C37" s="12"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="13"/>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="5" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C38" s="11"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="12"/>
-      <c r="I38" s="11"/>
-      <c r="J38" s="12"/>
+        <v>27</v>
+      </c>
+      <c r="C38" s="12"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="147">

--- a/高中签到表五中班.xlsx
+++ b/高中签到表五中班.xlsx
@@ -42,34 +42,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>李隆鑫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>张泓翔</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>谭诗广</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>黄诚</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>刘朗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吴翔宇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张永</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>赵玲钰</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -94,26 +74,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>申安福</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄白雪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李林欣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>欧晓将</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>王威</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>物理/数学</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -130,75 +94,111 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>向娇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>石晓凤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李相明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张达</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邹涛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>许文志</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李晓妮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>郎霜婷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>牟森</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>陈恳</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>谭玉清</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陈垚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蒋鑫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>付慧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>孙露</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>胡成果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张王秋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>物理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡成果（参与）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李隆鑫（参与）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谭诗广（参与）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牟森（参与）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘朗（参与）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李晓妮（参与）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴翔宇（参与）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郎霜婷（参与）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张永（参与）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒋鑫（参与）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李相明（参与）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张达（参与）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>付慧（参与）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张王秋（参与）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈垚（参与）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谭玉清（参与）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>许文志（参与）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申安福（参与）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邹涛（参与）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄白雪（参与）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李林欣（参与）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王威（参与）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向娇（参与）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石晓凤（参与）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -344,11 +344,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -359,11 +362,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -663,7 +663,7 @@
   <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -677,34 +677,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.75">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7" t="s">
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
@@ -713,662 +713,631 @@
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="11" t="s">
+      <c r="D3" s="11"/>
+      <c r="E3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="10"/>
-      <c r="G3" s="7" t="s">
+      <c r="F3" s="11"/>
+      <c r="G3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7" t="s">
+      <c r="H3" s="9"/>
+      <c r="I3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="7"/>
+      <c r="J3" s="9"/>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="4" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="4" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
+        <v>18</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="3" t="s">
-        <v>9</v>
+      <c r="A7" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
+        <v>22</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
+        <v>18</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="4" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
+        <v>17</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="3" t="s">
-        <v>11</v>
+      <c r="A10" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
+        <v>18</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="4" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
+        <v>17</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="3" t="s">
-        <v>12</v>
+      <c r="A12" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
+        <v>17</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
+        <v>17</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="3" t="s">
-        <v>13</v>
+      <c r="A14" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
+        <v>19</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="4" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
+        <v>17</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
+        <v>17</v>
+      </c>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
+        <v>17</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
+        <v>17</v>
+      </c>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
+        <v>17</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="4" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
+        <v>17</v>
+      </c>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
+        <v>18</v>
+      </c>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="4" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
+        <v>19</v>
+      </c>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
+        <v>19</v>
+      </c>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
+        <v>19</v>
+      </c>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="4" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
+        <v>19</v>
+      </c>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="6" t="s">
-        <v>38</v>
+      <c r="A26" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
+        <v>17</v>
+      </c>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
+        <v>17</v>
+      </c>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="3" t="s">
-        <v>20</v>
+      <c r="A30" s="6" t="s">
+        <v>40</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C30" s="7"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="8"/>
+        <v>18</v>
+      </c>
+      <c r="C30" s="9"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="13"/>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="4" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31" s="7"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="8"/>
+        <v>17</v>
+      </c>
+      <c r="C31" s="9"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="13"/>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" s="9"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="13"/>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33" s="9"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="13"/>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C32" s="7"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="8"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C33" s="7"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="8"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="6" t="s">
-        <v>43</v>
-      </c>
       <c r="B34" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C34" s="12"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="12"/>
-      <c r="J34" s="13"/>
+        <v>18</v>
+      </c>
+      <c r="C34" s="7"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="8"/>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="3" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C35" s="12"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="12"/>
-      <c r="J35" s="13"/>
+        <v>18</v>
+      </c>
+      <c r="C35" s="7"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="8"/>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="3" t="s">
-        <v>24</v>
+      <c r="A36" s="6" t="s">
+        <v>44</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C36" s="12"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="12"/>
-      <c r="J36" s="13"/>
+        <v>18</v>
+      </c>
+      <c r="C36" s="7"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="8"/>
     </row>
     <row r="37" spans="1:10">
-      <c r="A37" s="5" t="s">
-        <v>29</v>
+      <c r="A37" s="6" t="s">
+        <v>45</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C37" s="12"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="12"/>
-      <c r="J37" s="13"/>
+        <v>18</v>
+      </c>
+      <c r="C37" s="7"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="8"/>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38" s="5" t="s">
-        <v>30</v>
+      <c r="A38" s="6" t="s">
+        <v>46</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C38" s="12"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="13"/>
-      <c r="I38" s="12"/>
-      <c r="J38" s="13"/>
+        <v>18</v>
+      </c>
+      <c r="C38" s="7"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="147">
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="I33:J33"/>
     <mergeCell ref="I17:J17"/>
     <mergeCell ref="I18:J18"/>
     <mergeCell ref="I19:J19"/>
@@ -1393,52 +1362,83 @@
     <mergeCell ref="G17:H17"/>
     <mergeCell ref="G18:H18"/>
     <mergeCell ref="I21:J21"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/高中签到表五中班.xlsx
+++ b/高中签到表五中班.xlsx
@@ -266,7 +266,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -315,6 +315,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -324,7 +335,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -344,26 +355,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -663,7 +680,7 @@
   <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -674,37 +691,38 @@
     <col min="6" max="6" width="5.625" customWidth="1"/>
     <col min="8" max="8" width="5.625" customWidth="1"/>
     <col min="10" max="10" width="4.625" customWidth="1"/>
+    <col min="11" max="11" width="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.75">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="15"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9" t="s">
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
@@ -713,22 +731,22 @@
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="12" t="s">
+      <c r="D3" s="9"/>
+      <c r="E3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="11"/>
-      <c r="G3" s="9" t="s">
+      <c r="F3" s="9"/>
+      <c r="G3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9" t="s">
+      <c r="H3" s="7"/>
+      <c r="I3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="9"/>
+      <c r="J3" s="7"/>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="4" t="s">
@@ -737,14 +755,14 @@
       <c r="B4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="4" t="s">
@@ -753,14 +771,14 @@
       <c r="B5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="3" t="s">
@@ -769,14 +787,14 @@
       <c r="B6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="6" t="s">
@@ -785,14 +803,14 @@
       <c r="B7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="3" t="s">
@@ -801,14 +819,14 @@
       <c r="B8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="4" t="s">
@@ -817,14 +835,14 @@
       <c r="B9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="6" t="s">
@@ -833,14 +851,14 @@
       <c r="B10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="4" t="s">
@@ -849,14 +867,14 @@
       <c r="B11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="6" t="s">
@@ -865,14 +883,14 @@
       <c r="B12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="4" t="s">
@@ -881,14 +899,14 @@
       <c r="B13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="6" t="s">
@@ -897,14 +915,14 @@
       <c r="B14" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="4" t="s">
@@ -913,14 +931,14 @@
       <c r="B15" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="3" t="s">
@@ -929,14 +947,14 @@
       <c r="B16" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="4" t="s">
@@ -945,14 +963,14 @@
       <c r="B17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="3" t="s">
@@ -961,14 +979,14 @@
       <c r="B18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="4" t="s">
@@ -977,14 +995,14 @@
       <c r="B19" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="4" t="s">
@@ -993,14 +1011,14 @@
       <c r="B20" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="3" t="s">
@@ -1009,14 +1027,14 @@
       <c r="B21" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="4" t="s">
@@ -1025,14 +1043,14 @@
       <c r="B22" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="4" t="s">
@@ -1041,14 +1059,14 @@
       <c r="B23" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="4" t="s">
@@ -1057,14 +1075,14 @@
       <c r="B24" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="4" t="s">
@@ -1073,14 +1091,14 @@
       <c r="B25" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="5" t="s">
@@ -1089,14 +1107,14 @@
       <c r="B26" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="3" t="s">
@@ -1105,14 +1123,14 @@
       <c r="B27" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="3" t="s">
@@ -1121,14 +1139,14 @@
       <c r="B28" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="3" t="s">
@@ -1137,14 +1155,14 @@
       <c r="B29" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="6" t="s">
@@ -1153,14 +1171,14 @@
       <c r="B30" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C30" s="9"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="13"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="8"/>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="4" t="s">
@@ -1169,14 +1187,14 @@
       <c r="B31" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C31" s="9"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="13"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="8"/>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="6" t="s">
@@ -1185,14 +1203,14 @@
       <c r="B32" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C32" s="9"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="13"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="8"/>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="6" t="s">
@@ -1201,14 +1219,14 @@
       <c r="B33" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C33" s="9"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="13"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="8"/>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="5" t="s">
@@ -1217,14 +1235,14 @@
       <c r="B34" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C34" s="7"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="7"/>
-      <c r="J34" s="8"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="12"/>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="3" t="s">
@@ -1233,14 +1251,14 @@
       <c r="B35" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C35" s="7"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="8"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="12"/>
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="6" t="s">
@@ -1249,14 +1267,14 @@
       <c r="B36" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C36" s="7"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="8"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="12"/>
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="6" t="s">
@@ -1265,14 +1283,14 @@
       <c r="B37" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C37" s="7"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="7"/>
-      <c r="J37" s="8"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="12"/>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="6" t="s">
@@ -1281,39 +1299,118 @@
       <c r="B38" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C38" s="7"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="7"/>
-      <c r="J38" s="8"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="147">
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I21:J21"/>
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="E32:F32"/>
@@ -1338,107 +1435,28 @@
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="I32:J32"/>
     <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
